--- a/ontology/examples/exampleTAS.xlsx
+++ b/ontology/examples/exampleTAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="7905" tabRatio="554" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="7905" tabRatio="554" firstSheet="15" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -20,28 +20,27 @@
     <sheet name="2009-Normalized" sheetId="41" r:id="rId11"/>
     <sheet name="2010-Normalized" sheetId="42" r:id="rId12"/>
     <sheet name="2011-Normalized" sheetId="43" r:id="rId13"/>
-    <sheet name="Indicators-Normalized" sheetId="21" r:id="rId14"/>
-    <sheet name="Indicators-Adjusted" sheetId="24" r:id="rId15"/>
-    <sheet name="Indicators-Weighted" sheetId="25" r:id="rId16"/>
-    <sheet name="Clusters-Weighted" sheetId="22" r:id="rId17"/>
-    <sheet name="Subindex-Weighted" sheetId="26" r:id="rId18"/>
-    <sheet name="Index-Weighted" sheetId="27" r:id="rId19"/>
-    <sheet name="Rankings" sheetId="20" r:id="rId20"/>
+    <sheet name="Indicators-Adjusted" sheetId="24" r:id="rId14"/>
+    <sheet name="Indicators-Weighted" sheetId="25" r:id="rId15"/>
+    <sheet name="Clusters-Weighted" sheetId="22" r:id="rId16"/>
+    <sheet name="Subindex-Weighted" sheetId="26" r:id="rId17"/>
+    <sheet name="Index-Weighted" sheetId="27" r:id="rId18"/>
+    <sheet name="Rankings" sheetId="20" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="components">Metadata!$A$262:$A$265</definedName>
-    <definedName name="countries">Metadata!$A$15:$A$250</definedName>
-    <definedName name="datatype">Metadata!$A$5:$A$8</definedName>
-    <definedName name="indicators">Metadata!$A$253:$A$258</definedName>
-    <definedName name="subindexes">Metadata!$A$268:$A$270</definedName>
-    <definedName name="Years">Metadata!$A$277:$A$280</definedName>
+    <definedName name="components">Metadata!$A$264:$A$267</definedName>
+    <definedName name="countries">Metadata!$A$17:$A$252</definedName>
+    <definedName name="datatype">Metadata!$A$5:$A$10</definedName>
+    <definedName name="indicators">Metadata!$A$255:$A$260</definedName>
+    <definedName name="subindexes">Metadata!$A$270:$A$272</definedName>
+    <definedName name="Years">Metadata!$A$279:$A$282</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="296">
   <si>
     <t>Raw</t>
   </si>
@@ -784,9 +783,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>Data that are on this sheet are NOT to be edited</t>
   </si>
   <si>
@@ -893,6 +889,45 @@
   </si>
   <si>
     <t>Filtered countries</t>
+  </si>
+  <si>
+    <t>Adjusted</t>
+  </si>
+  <si>
+    <t>Adjust a value so it has no negative values</t>
+  </si>
+  <si>
+    <t>Weighted</t>
+  </si>
+  <si>
+    <t>Weighted mean of some cluster</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Description of indicator A</t>
+  </si>
+  <si>
+    <t>Description of indicator D</t>
+  </si>
+  <si>
+    <t>Description of indicator C</t>
+  </si>
+  <si>
+    <t>Description of indicator B</t>
+  </si>
+  <si>
+    <t>Quesiton 1</t>
+  </si>
+  <si>
+    <t>Quesiton 2</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight </t>
   </si>
 </sst>
 </file>
@@ -902,7 +937,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -968,17 +1003,36 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF002060"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1051,7 +1105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1061,32 +1115,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1414,10 +1470,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:C280"/>
+  <dimension ref="A2:E282"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A5:A8"/>
+    <sheetView topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="B264" sqref="B264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1425,20 +1481,21 @@
     <col min="1" max="1" width="27.125" customWidth="1"/>
     <col min="2" max="2" width="32.75" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="21.75">
-      <c r="A2" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" s="24"/>
+      <c r="A2" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="17"/>
       <c r="C2" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="15.75">
       <c r="A4" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1450,19 +1507,19 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="21" t="s">
-        <v>280</v>
+      <c r="A6" s="14" t="s">
+        <v>279</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" t="s">
         <v>282</v>
-      </c>
-      <c r="B7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1473,1387 +1530,1445 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="15.75">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="15.75">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="21" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="15.75">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="15.75">
+      <c r="A16" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
-      <c r="A241" t="s">
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
-      <c r="A242" t="s">
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
-      <c r="A243" t="s">
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
-      <c r="A244" t="s">
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
-      <c r="A245" t="s">
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
-      <c r="A246" t="s">
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
-      <c r="A247" t="s">
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
-      <c r="A248" t="s">
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
-      <c r="A249" t="s">
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
-      <c r="A250" t="s">
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="252" spans="1:3" s="1" customFormat="1" ht="15.75">
-      <c r="A252" s="1" t="s">
+    <row r="254" spans="1:5" s="1" customFormat="1" ht="15.75">
+      <c r="A254" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B252" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="A253" t="s">
+      <c r="B254" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>251</v>
+      </c>
+      <c r="B255" t="s">
+        <v>258</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255" t="s">
+        <v>288</v>
+      </c>
+      <c r="E255" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
         <v>252</v>
-      </c>
-      <c r="B253" t="s">
-        <v>259</v>
-      </c>
-      <c r="C253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
-      <c r="A254" t="s">
-        <v>253</v>
-      </c>
-      <c r="B254" t="s">
-        <v>260</v>
-      </c>
-      <c r="C254">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="A255" t="s">
-        <v>254</v>
-      </c>
-      <c r="B255" t="s">
-        <v>259</v>
-      </c>
-      <c r="C255">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="A256" t="s">
-        <v>255</v>
       </c>
       <c r="B256" t="s">
         <v>259</v>
       </c>
       <c r="C256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
+        <v>0.5</v>
+      </c>
+      <c r="D256" t="s">
+        <v>291</v>
+      </c>
+      <c r="E256" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B257" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C257">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="258" spans="1:3">
+      <c r="D257" t="s">
+        <v>290</v>
+      </c>
+      <c r="E257" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B258" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" s="1" customFormat="1" ht="15.75">
-      <c r="A261" s="1" t="s">
+      <c r="D258" t="s">
+        <v>289</v>
+      </c>
+      <c r="E258" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>244</v>
+      </c>
+      <c r="B259" t="s">
+        <v>258</v>
+      </c>
+      <c r="C259">
+        <v>0.5</v>
+      </c>
+      <c r="D259" t="s">
+        <v>292</v>
+      </c>
+      <c r="E259" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>255</v>
+      </c>
+      <c r="B260" t="s">
+        <v>258</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260" t="s">
+        <v>293</v>
+      </c>
+      <c r="E260" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" s="1" customFormat="1" ht="15.75">
+      <c r="A263" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
         <v>261</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" t="s">
-        <v>262</v>
-      </c>
-      <c r="B262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" t="s">
-        <v>256</v>
-      </c>
-      <c r="B263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" t="s">
-        <v>271</v>
       </c>
       <c r="B264">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B265">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:3" s="1" customFormat="1" ht="15.75">
-      <c r="A267" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" t="s">
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>270</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>262</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" s="1" customFormat="1" ht="15.75">
+      <c r="A269" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>267</v>
+      </c>
+      <c r="B270">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
         <v>268</v>
       </c>
-      <c r="B268">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" t="s">
-        <v>269</v>
-      </c>
-      <c r="B269">
+      <c r="B271">
         <v>0.6</v>
       </c>
     </row>
-    <row r="271" spans="1:3" s="1" customFormat="1" ht="15.75">
-      <c r="A271" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="A272" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
+    <row r="273" spans="1:1" s="1" customFormat="1" ht="15.75">
+      <c r="A273" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="276" spans="1:1" s="23" customFormat="1" ht="15.75">
-      <c r="A276" s="23" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278">
-        <v>2010</v>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" s="16" customFormat="1" ht="15.75">
+      <c r="A278" s="16" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282">
         <v>2012</v>
       </c>
     </row>
@@ -2872,205 +2987,403 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="9" style="9"/>
+    <col min="2" max="2" width="9" style="7"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:30" ht="15.75">
       <c r="A1" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="10">
+        <v>250</v>
+      </c>
+      <c r="B1" s="8">
         <v>2011</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+    </row>
+    <row r="2" spans="1:30" ht="15.75">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="B3" s="7" t="s">
+      <c r="B2" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+    </row>
+    <row r="3" spans="1:30" s="6" customFormat="1" ht="15.75">
+      <c r="A3" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="18">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>7</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27">
+        <f>AVERAGE(C4:E4)</f>
+        <v>5</v>
+      </c>
+      <c r="H4" s="27">
+        <f>STDEV(C4:E4)</f>
+        <v>2</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C5" s="5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27">
+        <f>AVERAGE(C5:E5)</f>
+        <v>7</v>
+      </c>
+      <c r="H5" s="27">
+        <f>STDEV(C5:E5)</f>
+        <v>3</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="19" t="s">
         <v>253</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75">
-      <c r="A5" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="12">
-        <v>8</v>
-      </c>
-      <c r="G5" s="12">
-        <v>6</v>
-      </c>
-      <c r="H5" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75">
-      <c r="A6" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="C6" s="5">
         <v>3</v>
       </c>
       <c r="D6" s="5">
+        <v>6</v>
+      </c>
+      <c r="E6" s="10">
+        <f>'2010-Raw'!E6*('2010-Raw'!E6/'2009-Raw'!E6)</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27">
+        <f>AVERAGE(C6:E6)</f>
+        <v>6.5555555555555545</v>
+      </c>
+      <c r="H6" s="27">
+        <f>STDEV(C6:E6)</f>
+        <v>3.8634085890474927</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="9">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9">
+        <v>8</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27">
+        <f>AVERAGE(C7:E7)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="H7" s="27">
+        <f>STDEV(C7:E7)</f>
+        <v>2.309401076758502</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="9">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9">
         <v>7</v>
       </c>
-      <c r="E6" s="5">
-        <v>6</v>
-      </c>
-      <c r="F6" s="12">
+      <c r="E8" s="9">
+        <v>8</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27">
+        <f>AVERAGE(C8:E8)</f>
+        <v>7</v>
+      </c>
+      <c r="H8" s="27">
+        <f>STDEV(C8:E8)</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9">
         <v>4</v>
       </c>
-      <c r="G6" s="12">
-        <v>7</v>
-      </c>
-      <c r="H6" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75">
-      <c r="A7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="12">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4</v>
-      </c>
-      <c r="E7" s="14">
-        <f>'2010-Raw'!E7*('2010-Raw'!E7/'2009-Raw'!E7)</f>
-        <v>10.666666666666666</v>
-      </c>
-      <c r="F7" s="12">
-        <v>8</v>
-      </c>
-      <c r="G7" s="12">
-        <v>8</v>
-      </c>
-      <c r="H7" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="22"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="5">
-        <f t="shared" ref="C9:H9" si="0">AVERAGE(C5:C7)</f>
-        <v>5</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>6.5555555555555545</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="0"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27">
+        <f>AVERAGE(C9:E9)</f>
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" s="5">
-        <f t="shared" ref="C10:H10" si="1">STDEV(C5:C7)</f>
-        <v>2</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="1"/>
-        <v>3.8634085890474927</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="1"/>
-        <v>2.309401076758502</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="1"/>
+      <c r="H9" s="27">
+        <f>STDEV(C9:E9)</f>
         <v>2.0816659994661335</v>
       </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A1048576 C3:F3">
       <formula1>countries</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
@@ -3079,7 +3392,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>Years</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A9">
       <formula1>indicators</formula1>
     </dataValidation>
   </dataValidations>
@@ -3093,21 +3406,21 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="9" style="9"/>
+    <col min="2" max="2" width="9" style="7"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="10">
+        <v>250</v>
+      </c>
+      <c r="B1" s="8">
         <v>2009</v>
       </c>
     </row>
@@ -3115,107 +3428,103 @@
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>282</v>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="15.75">
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="18">
+        <f>('2009-Sorted'!C4-'2009-Sorted'!G4)/'2009-Sorted'!H4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="18">
+        <f>('2009-Sorted'!D4-'2009-Sorted'!G4)/'2009-Sorted'!H4</f>
+        <v>-1</v>
+      </c>
+      <c r="E4" s="18">
+        <f>('2009-Sorted'!E4-'2009-Sorted'!G4)/'2009-Sorted'!H4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C5" s="18">
+        <f>('2009-Sorted'!G5-'2009-Sorted'!C5)/'2009-Sorted'!H5</f>
+        <v>-1</v>
+      </c>
+      <c r="D5" s="18">
+        <f>('2009-Sorted'!G5-'2009-Sorted'!D5)/'2009-Sorted'!H5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <f>('2009-Sorted'!G5-'2009-Sorted'!E5)/'2009-Sorted'!H5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C6" s="18">
+        <f>('2009-Sorted'!C6-'2009-Sorted'!G6)/'2009-Sorted'!H6</f>
+        <v>-0.57735026918962551</v>
+      </c>
+      <c r="D6" s="18">
+        <f>('2009-Sorted'!D6-'2009-Sorted'!G6)/'2009-Sorted'!H6</f>
+        <v>-0.57735026918962551</v>
+      </c>
+      <c r="E6" s="18">
+        <f>('2009-Sorted'!E6-'2009-Sorted'!G6)/'2009-Sorted'!H6</f>
+        <v>1.1547005383792501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5">
-        <f>('2009-Sorted'!C$5-'2009-Sorted'!C$9)/'2009-Sorted'!C$10</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <f>('2009-Sorted'!D$9-'2009-Sorted'!D$5)/'2009-Sorted'!D$10</f>
-        <v>-1</v>
-      </c>
-      <c r="E5" s="5">
-        <f>('2009-Sorted'!E$5-'2009-Sorted'!E$9)/'2009-Sorted'!E$10</f>
-        <v>-0.57735026918962551</v>
-      </c>
-      <c r="F5" s="5">
-        <f>('2009-Sorted'!F$5-'2009-Sorted'!F$9)/'2009-Sorted'!F$10</f>
+      <c r="C7" s="18">
+        <f>('2009-Sorted'!C7-'2009-Sorted'!G7)/'2009-Sorted'!H7</f>
         <v>0.57735026918962584</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="5">
-        <f>('2009-Sorted'!C$6-'2009-Sorted'!C$9)/'2009-Sorted'!C$10</f>
-        <v>-1</v>
-      </c>
-      <c r="D6" s="5">
-        <f>('2009-Sorted'!D$9-'2009-Sorted'!D$6)/'2009-Sorted'!D$10</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <f>('2009-Sorted'!E$6-'2009-Sorted'!E$9)/'2009-Sorted'!E$10</f>
-        <v>-0.57735026918962551</v>
-      </c>
-      <c r="F6" s="5">
-        <f>('2009-Sorted'!F$6-'2009-Sorted'!F$9)/'2009-Sorted'!F$10</f>
+      <c r="D7" s="18">
+        <f>('2009-Sorted'!D7-'2009-Sorted'!G7)/'2009-Sorted'!H7</f>
         <v>-1.1547005383792521</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="5">
-        <f>('2009-Sorted'!C$7-'2009-Sorted'!C$9)/'2009-Sorted'!C$10</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <f>('2009-Sorted'!D$9-'2009-Sorted'!D$7)/'2009-Sorted'!D$10</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <f>('2009-Sorted'!E$7-'2009-Sorted'!E$9)/'2009-Sorted'!E$10</f>
-        <v>1.1547005383792501</v>
-      </c>
-      <c r="F7" s="5">
-        <f>('2009-Sorted'!F$7-'2009-Sorted'!F$9)/'2009-Sorted'!F$10</f>
+      <c r="E7" s="18">
+        <f>('2009-Sorted'!E7-'2009-Sorted'!G7)/'2009-Sorted'!H7</f>
         <v>0.57735026918962584</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="22"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="15"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 A4:A7">
       <formula1>indicators</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -3224,7 +3533,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>datatype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1048576 C3:E3">
       <formula1>countries</formula1>
     </dataValidation>
   </dataValidations>
@@ -3238,21 +3547,21 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="9" style="9"/>
+    <col min="2" max="2" width="9" style="7"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="10">
+        <v>250</v>
+      </c>
+      <c r="B1" s="8">
         <v>2010</v>
       </c>
     </row>
@@ -3260,107 +3569,103 @@
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>282</v>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="15.75">
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="18">
+        <f>('2010-Sorted'!C4-'2010-Sorted'!G4)/'2010-Sorted'!H4</f>
+        <v>-0.21821789023599253</v>
+      </c>
+      <c r="D4" s="18">
+        <f>('2010-Sorted'!D4-'2010-Sorted'!G4)/'2010-Sorted'!H4</f>
+        <v>-0.87287156094396978</v>
+      </c>
+      <c r="E4" s="18">
+        <f>('2010-Sorted'!E4-'2010-Sorted'!G4)/'2010-Sorted'!H4</f>
+        <v>1.091089451179962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C5" s="18">
+        <f>('2010-Sorted'!G5-'2010-Sorted'!C5)/'2010-Sorted'!H5</f>
+        <v>-1</v>
+      </c>
+      <c r="D5" s="18">
+        <f>('2010-Sorted'!G5-'2010-Sorted'!D5)/'2010-Sorted'!H5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <f>('2010-Sorted'!G5-'2010-Sorted'!E5)/'2010-Sorted'!H5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C6" s="18">
+        <f>('2010-Sorted'!C6-'2010-Sorted'!G6)/'2010-Sorted'!H6</f>
+        <v>-0.57735026918962584</v>
+      </c>
+      <c r="D6" s="18">
+        <f>('2010-Sorted'!D6-'2010-Sorted'!G6)/'2010-Sorted'!H6</f>
+        <v>-0.57735026918962584</v>
+      </c>
+      <c r="E6" s="18">
+        <f>('2010-Sorted'!E6-'2010-Sorted'!G6)/'2010-Sorted'!H6</f>
+        <v>1.1547005383792517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5">
-        <f>('2010-Sorted'!C$5-'2010-Sorted'!C$9)/'2010-Sorted'!C$10</f>
-        <v>-0.21821789023599253</v>
-      </c>
-      <c r="D5" s="5">
-        <f>('2010-Sorted'!D$9-'2010-Sorted'!D$5)/'2010-Sorted'!D$10</f>
-        <v>-1</v>
-      </c>
-      <c r="E5" s="5">
-        <f>('2010-Sorted'!E$5-'2010-Sorted'!E$9)/'2010-Sorted'!E$10</f>
-        <v>-0.57735026918962584</v>
-      </c>
-      <c r="F5" s="5">
-        <f>('2010-Sorted'!F$5-'2010-Sorted'!F$9)/'2010-Sorted'!F$10</f>
+      <c r="C7" s="18">
+        <f>('2010-Sorted'!C7-'2010-Sorted'!G7)/'2010-Sorted'!H7</f>
         <v>0.57735026918962584</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="5">
-        <f>('2010-Sorted'!C$6-'2010-Sorted'!C$9)/'2010-Sorted'!C$10</f>
-        <v>-0.87287156094396978</v>
-      </c>
-      <c r="D6" s="5">
-        <f>('2010-Sorted'!D$9-'2010-Sorted'!D$6)/'2010-Sorted'!D$10</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <f>('2010-Sorted'!E$6-'2010-Sorted'!E$9)/'2010-Sorted'!E$10</f>
-        <v>-0.57735026918962584</v>
-      </c>
-      <c r="F6" s="5">
-        <f>('2010-Sorted'!F$6-'2010-Sorted'!F$9)/'2010-Sorted'!F$10</f>
+      <c r="D7" s="18">
+        <f>('2010-Sorted'!D7-'2010-Sorted'!G7)/'2010-Sorted'!H7</f>
         <v>-1.1547005383792517</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="5">
-        <f>('2010-Sorted'!C$7-'2010-Sorted'!C$9)/'2010-Sorted'!C$10</f>
-        <v>1.091089451179962</v>
-      </c>
-      <c r="D7" s="5">
-        <f>('2010-Sorted'!D$9-'2010-Sorted'!D$7)/'2010-Sorted'!D$10</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <f>('2010-Sorted'!E$7-'2010-Sorted'!E$9)/'2010-Sorted'!E$10</f>
-        <v>1.1547005383792517</v>
-      </c>
-      <c r="F7" s="5">
-        <f>('2010-Sorted'!F$7-'2010-Sorted'!F$9)/'2010-Sorted'!F$10</f>
+      <c r="E7" s="18">
+        <f>('2010-Sorted'!E7-'2010-Sorted'!G7)/'2010-Sorted'!H7</f>
         <v>0.57735026918962584</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="22"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="A8" s="15"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1048576 C3:E3">
       <formula1>countries</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
@@ -3369,7 +3674,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>Years</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 A4:A7">
       <formula1>indicators</formula1>
     </dataValidation>
   </dataValidations>
@@ -3380,24 +3685,24 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="9" style="9"/>
+    <col min="2" max="2" width="9" style="7"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="10">
+        <v>250</v>
+      </c>
+      <c r="B1" s="8">
         <v>2011</v>
       </c>
     </row>
@@ -3405,139 +3710,133 @@
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>280</v>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="18">
+        <f>('2011-Sorted'!C4-'2011-Sorted'!G4)/'2011-Sorted'!H4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="18">
+        <f>('2011-Sorted'!D4-'2011-Sorted'!G4)/'2011-Sorted'!H4</f>
+        <v>-1</v>
+      </c>
+      <c r="E4" s="18">
+        <f>('2011-Sorted'!E4-'2011-Sorted'!G4)/'2011-Sorted'!H4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C5" s="18">
+        <f>('2011-Sorted'!G5-'2011-Sorted'!C5)/'2011-Sorted'!H5</f>
+        <v>-1</v>
+      </c>
+      <c r="D5" s="18">
+        <f>('2011-Sorted'!G5-'2011-Sorted'!D5)/'2011-Sorted'!H5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <f>('2011-Sorted'!G5-'2011-Sorted'!E5)/'2011-Sorted'!H5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C6" s="18">
+        <f>('2011-Sorted'!C6-'2011-Sorted'!G6)/'2011-Sorted'!H6</f>
+        <v>-0.92031569366888055</v>
+      </c>
+      <c r="D6" s="18">
+        <f>('2011-Sorted'!D6-'2011-Sorted'!G6)/'2011-Sorted'!H6</f>
+        <v>-0.14379932713576235</v>
+      </c>
+      <c r="E6" s="18">
+        <f>('2011-Sorted'!E6-'2011-Sorted'!G6)/'2011-Sorted'!H6</f>
+        <v>1.0641150208046437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="C7" s="18">
+        <f>('2011-Sorted'!C7-'2011-Sorted'!G7)/'2011-Sorted'!H7</f>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="D7" s="18">
+        <f>('2011-Sorted'!D7-'2011-Sorted'!G7)/'2011-Sorted'!H7</f>
+        <v>-1.1547005383792521</v>
+      </c>
+      <c r="E7" s="18">
+        <f>('2011-Sorted'!E7-'2011-Sorted'!G7)/'2011-Sorted'!H7</f>
+        <v>0.57735026918962584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="18">
+        <f>('2011-Sorted'!C8-'2011-Sorted'!G8)/'2011-Sorted'!H8</f>
+        <v>-1</v>
+      </c>
+      <c r="D8" s="18">
+        <f>('2011-Sorted'!D8-'2011-Sorted'!G8)/'2011-Sorted'!H8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <f>('2011-Sorted'!E8-'2011-Sorted'!G8)/'2011-Sorted'!H8</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75">
-      <c r="A5" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5">
-        <f>('2011-Sorted'!C$5-'2011-Sorted'!C$9)/'2011-Sorted'!C$10</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <f>('2011-Sorted'!D$9-'2011-Sorted'!D$5)/'2011-Sorted'!D$10</f>
-        <v>-1</v>
-      </c>
-      <c r="E5" s="5">
-        <f>('2011-Sorted'!E$5-'2011-Sorted'!E$9)/'2011-Sorted'!E$10</f>
-        <v>-0.92031569366888055</v>
-      </c>
-      <c r="F5" s="5">
-        <f>('2011-Sorted'!F$5-'2011-Sorted'!F$9)/'2011-Sorted'!F$10</f>
-        <v>0.57735026918962584</v>
-      </c>
-      <c r="G5" s="5">
-        <f>('2011-Sorted'!G$5-'2011-Sorted'!G$9)/'2011-Sorted'!G$10</f>
-        <v>-1</v>
-      </c>
-      <c r="H5" s="5">
-        <f>('2011-Sorted'!H$5-'2011-Sorted'!H$9)/'2011-Sorted'!H$10</f>
+      <c r="C9" s="18">
+        <f>('2011-Sorted'!C9-'2011-Sorted'!G9)/'2011-Sorted'!H9</f>
         <v>1.1208970766356094</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75">
-      <c r="A6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="5">
-        <f>('2011-Sorted'!C$6-'2011-Sorted'!C$9)/'2011-Sorted'!C$10</f>
-        <v>-1</v>
-      </c>
-      <c r="D6" s="5">
-        <f>('2011-Sorted'!D$9-'2011-Sorted'!D$6)/'2011-Sorted'!D$10</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <f>('2011-Sorted'!E$6-'2011-Sorted'!E$9)/'2011-Sorted'!E$10</f>
-        <v>-0.14379932713576235</v>
-      </c>
-      <c r="F6" s="5">
-        <f>('2011-Sorted'!F$6-'2011-Sorted'!F$9)/'2011-Sorted'!F$10</f>
-        <v>-1.1547005383792521</v>
-      </c>
-      <c r="G6" s="5">
-        <f>('2011-Sorted'!G$6-'2011-Sorted'!G$9)/'2011-Sorted'!G$10</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <f>('2011-Sorted'!H$6-'2011-Sorted'!H$9)/'2011-Sorted'!H$10</f>
+      <c r="D9" s="18">
+        <f>('2011-Sorted'!D9-'2011-Sorted'!G9)/'2011-Sorted'!H9</f>
         <v>-0.80064076902543546</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75">
-      <c r="A7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="5">
-        <f>('2011-Sorted'!C$7-'2011-Sorted'!C$9)/'2011-Sorted'!C$10</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <f>('2011-Sorted'!D$9-'2011-Sorted'!D$7)/'2011-Sorted'!D$10</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <f>('2011-Sorted'!E$7-'2011-Sorted'!E$9)/'2011-Sorted'!E$10</f>
-        <v>1.0641150208046437</v>
-      </c>
-      <c r="F7" s="5">
-        <f>('2011-Sorted'!F$7-'2011-Sorted'!F$9)/'2011-Sorted'!F$10</f>
-        <v>0.57735026918962584</v>
-      </c>
-      <c r="G7" s="5">
-        <f>('2011-Sorted'!G$7-'2011-Sorted'!G$9)/'2011-Sorted'!G$10</f>
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
-        <f>('2011-Sorted'!H$7-'2011-Sorted'!H$9)/'2011-Sorted'!H$10</f>
+      <c r="E9" s="18">
+        <f>('2011-Sorted'!E9-'2011-Sorted'!G9)/'2011-Sorted'!H9</f>
         <v>-0.32025630761017432</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="22"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:H3 A4:A9">
       <formula1>indicators</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -3546,7 +3845,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>datatype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A1048576 C3:E3">
       <formula1>countries</formula1>
     </dataValidation>
   </dataValidations>
@@ -3557,128 +3856,178 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="8">
+        <v>2011</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="18">
+        <f>'2011-Normalized'!C4+8</f>
+        <v>8</v>
+      </c>
+      <c r="D4" s="18">
+        <f>'2011-Normalized'!D4+8</f>
+        <v>7</v>
+      </c>
+      <c r="E4" s="18">
+        <f>'2011-Normalized'!E4+8</f>
+        <v>9</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="28">
+        <f>'2011-Normalized'!C5+8</f>
+        <v>7</v>
+      </c>
+      <c r="D5" s="28">
+        <f>'2011-Normalized'!D5+8</f>
+        <v>8</v>
+      </c>
+      <c r="E5" s="28">
+        <f>'2011-Normalized'!E5+8</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="D1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="18">
+        <f>'2011-Normalized'!C6+8</f>
+        <v>7.079684306331119</v>
+      </c>
+      <c r="D6" s="18">
+        <f>'2011-Normalized'!D6+8</f>
+        <v>7.8562006728642375</v>
+      </c>
+      <c r="E6" s="18">
+        <f>'2011-Normalized'!E6+8</f>
+        <v>9.0641150208046444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="18">
+        <f>'2011-Normalized'!C7+8</f>
+        <v>8.5773502691896262</v>
+      </c>
+      <c r="D7" s="18">
+        <f>'2011-Normalized'!D7+8</f>
+        <v>6.8452994616207476</v>
+      </c>
+      <c r="E7" s="18">
+        <f>'2011-Normalized'!E7+8</f>
+        <v>8.5773502691896262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="18">
+        <f>'2011-Normalized'!C8+8</f>
+        <v>7</v>
+      </c>
+      <c r="D8" s="18">
+        <f>'2011-Normalized'!D8+8</f>
+        <v>8</v>
+      </c>
+      <c r="E8" s="18">
+        <f>'2011-Normalized'!E8+8</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="G1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="5">
-        <f>'2011-Normalized'!C$5</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <f>'2011-Normalized'!D$5</f>
-        <v>-1</v>
-      </c>
-      <c r="D2" s="5">
-        <f>'2011-Normalized'!H$5</f>
-        <v>1.1208970766356094</v>
-      </c>
-      <c r="E2" s="5">
-        <f>'2011-Normalized'!E$5</f>
-        <v>-0.92031569366888055</v>
-      </c>
-      <c r="F2" s="5">
-        <f>'2011-Normalized'!F$5</f>
-        <v>0.57735026918962584</v>
-      </c>
-      <c r="G2" s="5">
-        <f>'2011-Normalized'!G$5</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="5">
-        <f>'2011-Normalized'!C6</f>
-        <v>-1</v>
-      </c>
-      <c r="C3" s="5">
-        <f>'2011-Normalized'!D6</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <f>'2011-Normalized'!H$6</f>
-        <v>-0.80064076902543546</v>
-      </c>
-      <c r="E3" s="5">
-        <f>'2011-Normalized'!E6</f>
-        <v>-0.14379932713576235</v>
-      </c>
-      <c r="F3" s="5">
-        <f>'2011-Normalized'!F6</f>
-        <v>-1.1547005383792521</v>
-      </c>
-      <c r="G3" s="5">
-        <f>'2011-Normalized'!G$6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="5">
-        <f>'2011-Normalized'!C7</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <f>'2011-Normalized'!D7</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <f>'2011-Normalized'!H$7</f>
-        <v>-0.32025630761017432</v>
-      </c>
-      <c r="E4" s="5">
-        <f>'2011-Normalized'!E7</f>
-        <v>1.0641150208046437</v>
-      </c>
-      <c r="F4" s="5">
-        <f>'2011-Normalized'!F7</f>
-        <v>0.57735026918962584</v>
-      </c>
-      <c r="G4" s="5">
-        <f>'2011-Normalized'!G$7</f>
-        <v>1</v>
+      <c r="B9" s="7"/>
+      <c r="C9" s="18">
+        <f>'2011-Normalized'!C9+8</f>
+        <v>9.1208970766356092</v>
+      </c>
+      <c r="D9" s="18">
+        <f>'2011-Normalized'!D9+8</f>
+        <v>7.1993592309745642</v>
+      </c>
+      <c r="E9" s="18">
+        <f>'2011-Normalized'!E9+8</f>
+        <v>7.6797436923898257</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A74:A338 A2:A5">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A73:A337 C3:E3">
       <formula1>countries</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>datatype</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>Years</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A9">
+      <formula1>indicators</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3688,7 +4037,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Metadata!$A$253:$A$258</xm:f>
+            <xm:f>Metadata!$A$255:$A$260</xm:f>
           </x14:formula1>
           <xm:sqref>B1:O1</xm:sqref>
         </x14:dataValidation>
@@ -3700,128 +4049,198 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="8">
+        <v>2011</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="7">
+        <f>Metadata!C255</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="18">
+        <f>'Indicators-Adjusted'!C4*B4</f>
+        <v>8</v>
+      </c>
+      <c r="D4" s="18">
+        <f>'Indicators-Adjusted'!D4*B4</f>
+        <v>7</v>
+      </c>
+      <c r="E4" s="18">
+        <f>'Indicators-Adjusted'!E4*B4</f>
+        <v>9</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B5" s="7">
+        <f>Metadata!C256</f>
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="18">
+        <f>'Indicators-Adjusted'!C5*B5</f>
+        <v>3.5</v>
+      </c>
+      <c r="D5" s="18">
+        <f>'Indicators-Adjusted'!D5*B5</f>
+        <v>4</v>
+      </c>
+      <c r="E5" s="18">
+        <f>'Indicators-Adjusted'!E5*B5</f>
+        <v>4.5</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="D1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B6" s="7">
+        <f>Metadata!C257</f>
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="18">
+        <f>'Indicators-Adjusted'!C6*B6</f>
+        <v>3.5398421531655595</v>
+      </c>
+      <c r="D6" s="18">
+        <f>'Indicators-Adjusted'!D6*B6</f>
+        <v>3.9281003364321188</v>
+      </c>
+      <c r="E6" s="18">
+        <f>'Indicators-Adjusted'!E6*B6</f>
+        <v>4.5320575104023222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B7" s="7">
+        <f>Metadata!C258</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="18">
+        <f>'Indicators-Adjusted'!C7*B7</f>
+        <v>8.5773502691896262</v>
+      </c>
+      <c r="D7" s="18">
+        <f>'Indicators-Adjusted'!D7*B7</f>
+        <v>6.8452994616207476</v>
+      </c>
+      <c r="E7" s="18">
+        <f>'Indicators-Adjusted'!E7*B7</f>
+        <v>8.5773502691896262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="7">
+        <f>Metadata!C259</f>
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="18">
+        <f>'Indicators-Adjusted'!C8*B8</f>
+        <v>3.5</v>
+      </c>
+      <c r="D8" s="18">
+        <f>'Indicators-Adjusted'!D8*B8</f>
+        <v>4</v>
+      </c>
+      <c r="E8" s="18">
+        <f>'Indicators-Adjusted'!E8*B8</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="G1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="5">
-        <f>'Indicators-Normalized'!B2+8</f>
-        <v>8</v>
-      </c>
-      <c r="C2" s="5">
-        <f>'Indicators-Normalized'!C2+8</f>
-        <v>7</v>
-      </c>
-      <c r="D2" s="5">
-        <f>'Indicators-Normalized'!D2+8</f>
+      <c r="B9" s="7">
+        <f>Metadata!C260</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="18">
+        <f>'Indicators-Adjusted'!C9*B9</f>
         <v>9.1208970766356092</v>
       </c>
-      <c r="E2" s="5">
-        <f>'Indicators-Normalized'!E2+8</f>
-        <v>7.079684306331119</v>
-      </c>
-      <c r="F2" s="5">
-        <f>'Indicators-Normalized'!F2+8</f>
-        <v>8.5773502691896262</v>
-      </c>
-      <c r="G2" s="5">
-        <f>'Indicators-Normalized'!G2+8</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="5">
-        <f>'Indicators-Normalized'!B3+8</f>
-        <v>7</v>
-      </c>
-      <c r="C3" s="5">
-        <f>'Indicators-Normalized'!C3+8</f>
-        <v>8</v>
-      </c>
-      <c r="D3" s="5">
-        <f>'Indicators-Normalized'!D3+8</f>
+      <c r="D9" s="18">
+        <f>'Indicators-Adjusted'!D9*B9</f>
         <v>7.1993592309745642</v>
       </c>
-      <c r="E3" s="5">
-        <f>'Indicators-Normalized'!E3+8</f>
-        <v>7.8562006728642375</v>
-      </c>
-      <c r="F3" s="5">
-        <f>'Indicators-Normalized'!F3+8</f>
-        <v>6.8452994616207476</v>
-      </c>
-      <c r="G3" s="5">
-        <f>'Indicators-Normalized'!G3+8</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="5">
-        <f>'Indicators-Normalized'!B4+8</f>
-        <v>9</v>
-      </c>
-      <c r="C4" s="5">
-        <f>'Indicators-Normalized'!C4+8</f>
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
-        <f>'Indicators-Normalized'!D4+8</f>
+      <c r="E9" s="18">
+        <f>'Indicators-Adjusted'!E9*B9</f>
         <v>7.6797436923898257</v>
       </c>
-      <c r="E4" s="5">
-        <f>'Indicators-Normalized'!E4+8</f>
-        <v>9.0641150208046444</v>
-      </c>
-      <c r="F4" s="5">
-        <f>'Indicators-Normalized'!F4+8</f>
-        <v>8.5773502691896262</v>
-      </c>
-      <c r="G4" s="5">
-        <f>'Indicators-Normalized'!G4+8</f>
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A73:A337 A2:A4">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A73:A337 C3:E3">
       <formula1>countries</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A9">
+      <formula1>indicators</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>Years</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>datatype</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3831,7 +4250,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Metadata!$A$253:$A$258</xm:f>
+            <xm:f>Metadata!$A$255:$A$260</xm:f>
           </x14:formula1>
           <xm:sqref>B1:O1</xm:sqref>
         </x14:dataValidation>
@@ -3843,161 +4262,146 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="8">
+        <v>2011</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="18">
+        <f>('Indicators-Weighted'!C4+'Indicators-Weighted'!C5)/2</f>
+        <v>5.75</v>
+      </c>
+      <c r="D4" s="18">
+        <f>('Indicators-Weighted'!D4+'Indicators-Weighted'!D5)/2</f>
+        <v>5.5</v>
+      </c>
+      <c r="E4" s="18">
+        <f>('Indicators-Weighted'!E4+'Indicators-Weighted'!E5)/2</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="G1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
-      <c r="A2" s="6" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="18">
+        <f>('Indicators-Weighted'!C9)</f>
+        <v>9.1208970766356092</v>
+      </c>
+      <c r="D5" s="18">
+        <f>('Indicators-Weighted'!D9)</f>
+        <v>7.1993592309745642</v>
+      </c>
+      <c r="E5" s="18">
+        <f>('Indicators-Weighted'!E9)</f>
+        <v>7.6797436923898257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0.5</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="16">
-        <f>IF(B2&gt;0,'Indicators-Adjusted'!B2*B2)</f>
-        <v>8</v>
-      </c>
-      <c r="C3" s="16">
-        <f>IF(C2&gt;0,'Indicators-Adjusted'!C2*C2)</f>
-        <v>3.5</v>
-      </c>
-      <c r="D3" s="16">
-        <f>IF(D2&gt;0,'Indicators-Adjusted'!D2*D2)</f>
-        <v>9.1208970766356092</v>
-      </c>
-      <c r="E3" s="16">
-        <f>IF(E2&gt;0,'Indicators-Adjusted'!E2*E2)</f>
+      <c r="B6" s="7"/>
+      <c r="C6" s="18">
+        <f>('Indicators-Weighted'!C6)</f>
         <v>3.5398421531655595</v>
       </c>
-      <c r="F3" s="16">
-        <f>IF(F2&gt;0,'Indicators-Adjusted'!F2*F2)</f>
-        <v>8.5773502691896262</v>
-      </c>
-      <c r="G3" s="16">
-        <f>IF(G2&gt;0,'Indicators-Adjusted'!G2*G2)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="16">
-        <f>IF(B2&gt;0,'Indicators-Adjusted'!B3*B2)</f>
-        <v>7</v>
-      </c>
-      <c r="C4" s="16">
-        <f>IF(C2&gt;0,'Indicators-Adjusted'!C3*C2)</f>
-        <v>4</v>
-      </c>
-      <c r="D4" s="16">
-        <f>IF(D2&gt;0,'Indicators-Adjusted'!D3*D2)</f>
-        <v>7.1993592309745642</v>
-      </c>
-      <c r="E4" s="16">
-        <f>IF(E2&gt;0,'Indicators-Adjusted'!E3*E2)</f>
+      <c r="D6" s="18">
+        <f>('Indicators-Weighted'!D6)</f>
         <v>3.9281003364321188</v>
       </c>
-      <c r="F4" s="16">
-        <f>IF(F2&gt;0,'Indicators-Adjusted'!F3*F2)</f>
-        <v>6.8452994616207476</v>
-      </c>
-      <c r="G4" s="16">
-        <f>IF(G2&gt;0,'Indicators-Adjusted'!G3*G2)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="16">
-        <f>IF(B2&gt;0,'Indicators-Adjusted'!B4*B2)</f>
-        <v>9</v>
-      </c>
-      <c r="C5" s="16">
-        <f>IF(C2&gt;0,'Indicators-Adjusted'!C4*C2)</f>
-        <v>4.5</v>
-      </c>
-      <c r="D5" s="16">
-        <f>IF(D2&gt;0,'Indicators-Adjusted'!D4*D2)</f>
-        <v>7.6797436923898257</v>
-      </c>
-      <c r="E5" s="16">
-        <f>IF(E2&gt;0,'Indicators-Adjusted'!E4*E2)</f>
+      <c r="E6" s="18">
+        <f>('Indicators-Weighted'!E6)</f>
         <v>4.5320575104023222</v>
       </c>
-      <c r="F5" s="16">
-        <f>IF(F2&gt;0,'Indicators-Adjusted'!F4*F2)</f>
-        <v>8.5773502691896262</v>
-      </c>
-      <c r="G5" s="16">
-        <f>IF(G2&gt;0,'Indicators-Adjusted'!G4*G2)</f>
-        <v>4.5</v>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="18">
+        <f>('Indicators-Weighted'!C7+'Indicators-Weighted'!C8)/2</f>
+        <v>6.0386751345948131</v>
+      </c>
+      <c r="D7" s="18">
+        <f>('Indicators-Weighted'!D7+'Indicators-Weighted'!D8)/2</f>
+        <v>5.4226497308103738</v>
+      </c>
+      <c r="E7" s="18">
+        <f>('Indicators-Weighted'!E7+'Indicators-Weighted'!E8)/2</f>
+        <v>6.5386751345948131</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A73:A337 A3:A5">
+  <dataConsolidate/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:E3">
       <formula1>countries</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>datatype</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>Years</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A7">
+      <formula1>components</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Metadata!$A$253:$A$258</xm:f>
+            <xm:f>Metadata!$A$264:$A$267</xm:f>
           </x14:formula1>
           <xm:sqref>B1:O1</xm:sqref>
         </x14:dataValidation>
@@ -4012,117 +4416,106 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" t="s">
-        <v>263</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B1" s="8">
+        <v>2011</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B2">
-        <f>Metadata!B262</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f>Metadata!B263</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f>Metadata!B264</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f>Metadata!B264</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="17">
-        <f>AVERAGE('Indicators-Weighted'!B$3:'Indicators-Weighted'!C$3)</f>
-        <v>5.75</v>
-      </c>
-      <c r="C3" s="17">
-        <f>AVERAGE('Indicators-Weighted'!D3)</f>
-        <v>9.1208970766356092</v>
-      </c>
-      <c r="D3" s="17">
-        <f>AVERAGE('Indicators-Weighted'!E3)</f>
-        <v>3.5398421531655595</v>
-      </c>
-      <c r="E3" s="17">
-        <f>AVERAGE('Indicators-Weighted'!G3:'Indicators-Weighted'!F3)</f>
-        <v>6.0386751345948131</v>
+      <c r="D3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="17">
-        <f>AVERAGE('Indicators-Weighted'!B$4:'Indicators-Weighted'!C$4)</f>
-        <v>5.5</v>
-      </c>
-      <c r="C4" s="17">
-        <f>AVERAGE('Indicators-Weighted'!D4)</f>
-        <v>7.1993592309745642</v>
-      </c>
-      <c r="D4" s="17">
-        <f>AVERAGE('Indicators-Weighted'!E4)</f>
-        <v>3.9281003364321188</v>
-      </c>
-      <c r="E4" s="17">
-        <f>AVERAGE('Indicators-Weighted'!G4:'Indicators-Weighted'!F4)</f>
-        <v>5.4226497308103738</v>
+      <c r="A4" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="7">
+        <f>Metadata!B270</f>
+        <v>0.4</v>
+      </c>
+      <c r="C4" s="18">
+        <f>AVERAGE('Clusters-Weighted'!C4:'Clusters-Weighted'!C5)</f>
+        <v>7.4354485383178046</v>
+      </c>
+      <c r="D4" s="18">
+        <f>AVERAGE('Clusters-Weighted'!D4:'Clusters-Weighted'!D5)</f>
+        <v>6.3496796154872825</v>
+      </c>
+      <c r="E4" s="18">
+        <f>AVERAGE('Clusters-Weighted'!E4:'Clusters-Weighted'!E5)</f>
+        <v>7.2148718461949128</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="17">
-        <f>AVERAGE('Indicators-Weighted'!B$5:'Indicators-Weighted'!C$5)</f>
-        <v>6.75</v>
-      </c>
-      <c r="C5" s="17">
-        <f>AVERAGE('Indicators-Weighted'!D5)</f>
-        <v>7.6797436923898257</v>
-      </c>
-      <c r="D5" s="17">
-        <f>AVERAGE('Indicators-Weighted'!E5)</f>
-        <v>4.5320575104023222</v>
-      </c>
-      <c r="E5" s="17">
-        <f>AVERAGE('Indicators-Weighted'!G5:'Indicators-Weighted'!F5)</f>
-        <v>6.5386751345948131</v>
+      <c r="A5" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="7">
+        <f>Metadata!B271</f>
+        <v>0.6</v>
+      </c>
+      <c r="C5" s="18">
+        <f>AVERAGE('Clusters-Weighted'!C6:'Clusters-Weighted'!C7)</f>
+        <v>4.7892586438801867</v>
+      </c>
+      <c r="D5" s="18">
+        <f>AVERAGE('Clusters-Weighted'!D6:'Clusters-Weighted'!D7)</f>
+        <v>4.6753750336212461</v>
+      </c>
+      <c r="E5" s="18">
+        <f>AVERAGE('Clusters-Weighted'!E6:'Clusters-Weighted'!E7)</f>
+        <v>5.5353663224985681</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A5">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:E3">
       <formula1>countries</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>Years</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>datatype</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5">
+      <formula1>subindexes</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4131,9 +4524,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Metadata!$A$262:$A$265</xm:f>
+            <xm:f>Metadata!$A$270:$A$271</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:O1</xm:sqref>
+          <xm:sqref>B1:C1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4143,153 +4536,244 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
+        <v>250</v>
+      </c>
+      <c r="B1" s="8">
+        <v>2011</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B2">
-        <f>Metadata!B268</f>
-        <v>0.4</v>
-      </c>
-      <c r="C2">
-        <f>Metadata!B269</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="17">
-        <f>AVERAGE('Clusters-Weighted'!B3:'Clusters-Weighted'!C3)</f>
-        <v>7.4354485383178046</v>
-      </c>
-      <c r="C3" s="17">
-        <f>AVERAGE('Clusters-Weighted'!D3:'Clusters-Weighted'!E3)</f>
-        <v>4.7892586438801867</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="D3" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="17">
-        <f>AVERAGE('Clusters-Weighted'!B4:'Clusters-Weighted'!C4)</f>
-        <v>6.3496796154872825</v>
-      </c>
-      <c r="C4" s="17">
-        <f>AVERAGE('Clusters-Weighted'!D4:'Clusters-Weighted'!E4)</f>
-        <v>4.6753750336212461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="E3" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="17">
-        <f>AVERAGE('Clusters-Weighted'!B5:'Clusters-Weighted'!C5)</f>
-        <v>7.2148718461949128</v>
-      </c>
-      <c r="C5" s="17">
-        <f>AVERAGE('Clusters-Weighted'!D5:'Clusters-Weighted'!E5)</f>
-        <v>5.5353663224985681</v>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="18">
+        <f>'Subindex-Weighted'!C4*'Subindex-Weighted'!B4+'Subindex-Weighted'!C5*'Subindex-Weighted'!B5</f>
+        <v>5.8477346016552341</v>
+      </c>
+      <c r="D4" s="18">
+        <f>'Subindex-Weighted'!D4*'Subindex-Weighted'!B4+'Subindex-Weighted'!D5*'Subindex-Weighted'!B5</f>
+        <v>5.3450968663676601</v>
+      </c>
+      <c r="E4" s="18">
+        <f>'Subindex-Weighted'!E4*'Subindex-Weighted'!B4+'Subindex-Weighted'!E5*'Subindex-Weighted'!B5</f>
+        <v>6.2071685319771062</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A5">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:E3">
       <formula1>countries</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>datatype</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>Years</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Metadata!$A$268:$A$269</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:C1</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8">
+      <c r="B1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="B1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B2">
-        <f>'Subindex-Weighted'!B3*Metadata!B268+'Subindex-Weighted'!C3*Metadata!B269</f>
-        <v>5.8477346016552341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B3" s="12">
+        <f>RANK('Clusters-Weighted'!C4,'Clusters-Weighted'!C$4:E$4)</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="12">
+        <f>RANK('Clusters-Weighted'!C5,'Clusters-Weighted'!C$5:E$5)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
+        <f>RANK('Subindex-Weighted'!C4,'Subindex-Weighted'!C$4:E$4)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <f>RANK('Clusters-Weighted'!C6,'Clusters-Weighted'!C$6:E$6)</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="12">
+        <f>RANK('Clusters-Weighted'!C7,'Clusters-Weighted'!C$7:E$7)</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="12">
+        <f>RANK('Subindex-Weighted'!C5,'Subindex-Weighted'!C5:E5)</f>
+        <v>2</v>
+      </c>
+      <c r="H3" s="12">
+        <f>RANK('Index-Weighted'!C4,'Index-Weighted'!C4:E4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>78</v>
       </c>
-      <c r="B3">
-        <f>'Subindex-Weighted'!B4*Metadata!B268+'Subindex-Weighted'!C4*Metadata!B269</f>
-        <v>5.3450968663676601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B4" s="12">
+        <f>RANK('Clusters-Weighted'!D4,'Clusters-Weighted'!C$4:E$4)</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="12">
+        <f>RANK('Clusters-Weighted'!D5,'Clusters-Weighted'!C$5:E$5)</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="12">
+        <f>RANK('Subindex-Weighted'!D4,'Subindex-Weighted'!C$4:E$4)</f>
+        <v>3</v>
+      </c>
+      <c r="E4" s="12">
+        <f>RANK('Clusters-Weighted'!D6,'Clusters-Weighted'!C$6:E$6)</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="12">
+        <f>RANK('Clusters-Weighted'!D7,'Clusters-Weighted'!C$7:E$7)</f>
+        <v>3</v>
+      </c>
+      <c r="G4" s="12">
+        <f>RANK('Subindex-Weighted'!D5,'Subindex-Weighted'!C5:E5)</f>
+        <v>3</v>
+      </c>
+      <c r="H4" s="12">
+        <f>RANK('Index-Weighted'!D4,'Index-Weighted'!C4:E4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>48</v>
       </c>
-      <c r="B4">
-        <f>'Subindex-Weighted'!B5*Metadata!B268+'Subindex-Weighted'!C5*Metadata!B269</f>
-        <v>6.2071685319771062</v>
+      <c r="B5" s="12">
+        <f>RANK('Clusters-Weighted'!E4,'Clusters-Weighted'!C$4:E$4)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <f>RANK('Clusters-Weighted'!E5,'Clusters-Weighted'!C$5:E$5)</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="12">
+        <f>RANK('Subindex-Weighted'!E4,'Subindex-Weighted'!C$4:E$4)</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <f>RANK('Clusters-Weighted'!E6,'Clusters-Weighted'!C$6:E$6)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
+        <f>RANK('Clusters-Weighted'!E7,'Clusters-Weighted'!C$7:E$7)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
+        <f>RANK('Subindex-Weighted'!E5,'Subindex-Weighted'!C5:E5)</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
+        <f>RANK('Index-Weighted'!E4,'Index-Weighted'!C4:E4)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <dataConsolidate/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
-      <formula1>countries</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4298,127 +4782,128 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="9" style="9"/>
+    <col min="2" max="2" width="9" style="7"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="8">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75">
+      <c r="A2" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="15.75">
+      <c r="A3" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="10">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75">
-      <c r="A2" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="15.75">
-      <c r="B3" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="8"/>
       <c r="C5" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="9">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4</v>
+      </c>
+      <c r="F7" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4</v>
-      </c>
-      <c r="F6" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="12">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4</v>
-      </c>
-      <c r="E7" s="12">
-        <v>6</v>
-      </c>
-      <c r="F7" s="12">
-        <v>4</v>
-      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2</v>
-      </c>
-      <c r="F8" s="12">
-        <v>1</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1048576">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:F3 A18:A1048576 A8:A10">
       <formula1>countries</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
@@ -4427,171 +4912,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>Years</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16:A17 A4:A7">
       <formula1>indicators</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G2" t="s">
-        <v>269</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="18">
-        <f>RANK('Clusters-Weighted'!B3,'Clusters-Weighted'!B$3:B$5)</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="18">
-        <f>RANK('Clusters-Weighted'!C3,'Clusters-Weighted'!C$3:C$5)</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="18">
-        <f>RANK('Subindex-Weighted'!B3,'Subindex-Weighted'!B$3:B$5)</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="18">
-        <f>RANK('Clusters-Weighted'!D3,'Clusters-Weighted'!D$3:D$5)</f>
-        <v>3</v>
-      </c>
-      <c r="F3" s="18">
-        <f>RANK('Clusters-Weighted'!E3,'Clusters-Weighted'!E$3:E$5)</f>
-        <v>2</v>
-      </c>
-      <c r="G3" s="18">
-        <f>RANK('Subindex-Weighted'!C3,'Subindex-Weighted'!C$3:C$5)</f>
-        <v>2</v>
-      </c>
-      <c r="H3" s="20">
-        <f>RANK('Index-Weighted'!B2,'Index-Weighted'!B$2:B$4)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="18">
-        <f>RANK('Clusters-Weighted'!B4,'Clusters-Weighted'!B$3:B$5)</f>
-        <v>3</v>
-      </c>
-      <c r="C4" s="18">
-        <f>RANK('Clusters-Weighted'!C4,'Clusters-Weighted'!C$3:C$5)</f>
-        <v>3</v>
-      </c>
-      <c r="D4" s="18">
-        <f>RANK('Subindex-Weighted'!B4,'Subindex-Weighted'!B$3:B$5)</f>
-        <v>3</v>
-      </c>
-      <c r="E4" s="18">
-        <f>RANK('Clusters-Weighted'!D4,'Clusters-Weighted'!D$3:D$5)</f>
-        <v>2</v>
-      </c>
-      <c r="F4" s="18">
-        <f>RANK('Clusters-Weighted'!E4,'Clusters-Weighted'!E$3:E$5)</f>
-        <v>3</v>
-      </c>
-      <c r="G4" s="18">
-        <f>RANK('Subindex-Weighted'!C4,'Subindex-Weighted'!C$3:C$5)</f>
-        <v>3</v>
-      </c>
-      <c r="H4" s="20">
-        <f>RANK('Index-Weighted'!B3,'Index-Weighted'!B$2:B$4)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="18">
-        <f>RANK('Clusters-Weighted'!B5,'Clusters-Weighted'!B$3:B$5)</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="18">
-        <f>RANK('Clusters-Weighted'!C5,'Clusters-Weighted'!C$3:C$5)</f>
-        <v>2</v>
-      </c>
-      <c r="D5" s="18">
-        <f>RANK('Subindex-Weighted'!B5,'Subindex-Weighted'!B$3:B$5)</f>
-        <v>2</v>
-      </c>
-      <c r="E5" s="18">
-        <f>RANK('Clusters-Weighted'!D5,'Clusters-Weighted'!D$3:D$5)</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="18">
-        <f>RANK('Clusters-Weighted'!E5,'Clusters-Weighted'!E$3:E$5)</f>
-        <v>1</v>
-      </c>
-      <c r="G5" s="18">
-        <f>RANK('Subindex-Weighted'!C5,'Subindex-Weighted'!C$3:C$5)</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="20">
-        <f>RANK('Index-Weighted'!B4,'Index-Weighted'!B$2:B$4)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -4602,123 +4926,124 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="9" style="9"/>
+    <col min="2" max="2" width="9" style="7"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="8">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75">
+      <c r="A2" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="15.75">
+      <c r="A3" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="10">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75">
-      <c r="A2" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="15.75">
-      <c r="B3" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="18">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C5" s="5">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5">
+      <c r="C7" s="9">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="5">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="E7" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="5">
-        <v>6</v>
-      </c>
-      <c r="F6" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="12">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4</v>
-      </c>
-      <c r="E7" s="12">
-        <v>8</v>
-      </c>
-      <c r="F7" s="12">
-        <v>6</v>
-      </c>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="15"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A7">
       <formula1>indicators</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:F3 A18:A1048576 A8:A12">
+      <formula1>countries</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>Years</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>datatype</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1048576">
-      <formula1>countries</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4728,24 +5053,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="9" style="9"/>
+    <col min="2" max="2" width="9" style="7"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="10">
+        <v>250</v>
+      </c>
+      <c r="B1" s="8">
         <v>2011</v>
       </c>
     </row>
@@ -4753,143 +5078,148 @@
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="18">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>7</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C5" s="5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9">
+        <v>4</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="19" t="s">
         <v>253</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75">
-      <c r="A5" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="12">
-        <v>8</v>
-      </c>
-      <c r="G5" s="12">
-        <v>6</v>
-      </c>
-      <c r="H5" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75">
-      <c r="A6" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="C6" s="5">
         <v>3</v>
       </c>
       <c r="D6" s="5">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9">
+        <v>4</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="9">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="9">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9">
         <v>7</v>
       </c>
-      <c r="E6" s="5">
-        <v>6</v>
-      </c>
-      <c r="F6" s="12">
+      <c r="E8" s="9">
+        <v>8</v>
+      </c>
+      <c r="F8" s="9">
+        <v>3</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9">
         <v>4</v>
       </c>
-      <c r="G6" s="12">
-        <v>7</v>
-      </c>
-      <c r="H6" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75">
-      <c r="A7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="12">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12">
-        <v>8</v>
-      </c>
-      <c r="G7" s="12">
-        <v>8</v>
-      </c>
-      <c r="H7" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
-        <v>4</v>
-      </c>
-      <c r="E8" s="12">
-        <v>4</v>
-      </c>
-      <c r="F8" s="12">
-        <v>3</v>
-      </c>
-      <c r="G8" s="12">
-        <v>3</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="F9" s="9">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:F3 A20:A1048576 A10:A12">
       <formula1>countries</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A9 G3:J3">
+      <formula1>indicators</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>datatype</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>Years</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:J3">
-      <formula1>indicators</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4899,24 +5229,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="9" style="9"/>
+    <col min="2" max="2" width="9" style="7"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="10">
+        <v>250</v>
+      </c>
+      <c r="B1" s="8">
         <v>2009</v>
       </c>
     </row>
@@ -4924,105 +5254,99 @@
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>280</v>
+      <c r="B2" s="7" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="15.75">
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="8"/>
       <c r="C5" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
       <c r="D6" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="5">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="F6" s="12">
+      <c r="D7" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="12">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="E7" s="9">
         <v>4</v>
       </c>
-      <c r="E7" s="12">
-        <v>6</v>
-      </c>
-      <c r="F7" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="F7" s="9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A7">
       <formula1>indicators</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -5031,7 +5355,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>datatype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1048576 C3:F3">
       <formula1>countries</formula1>
     </dataValidation>
   </dataValidations>
@@ -5045,21 +5369,21 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="9" style="9"/>
+    <col min="2" max="2" width="9" style="7"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="10">
+        <v>250</v>
+      </c>
+      <c r="B1" s="8">
         <v>2010</v>
       </c>
     </row>
@@ -5067,111 +5391,112 @@
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>280</v>
+      <c r="B2" s="7" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="15.75">
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="18">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10">
+        <f>('2009-Raw'!D4+'2011-Raw'!D4)/2</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10">
+        <f>('2009-Raw'!F4+'2011-Raw'!F4)/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C5" s="5">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="10">
+        <f>('2009-Raw'!F5+'2011-Raw'!F5)/2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10">
+        <f>('2009-Raw'!D6+'2011-Raw'!D6)/2</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="10">
+        <f>('2009-Raw'!F6+'2011-Raw'!F6)/2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5">
+      <c r="C7" s="9">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="5">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="E7" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="13">
-        <f>('2009-Imputed'!C6+'2011-Imputed'!C6)/2</f>
+      <c r="F7" s="10">
+        <f>('2009-Raw'!F7+'2011-Raw'!F7)/2</f>
         <v>2</v>
       </c>
-      <c r="D6" s="5">
-        <v>6</v>
-      </c>
-      <c r="E6" s="13">
-        <f>('2009-Imputed'!E6+'2011-Imputed'!E6)/2</f>
-        <v>5</v>
-      </c>
-      <c r="F6" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="12">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4</v>
-      </c>
-      <c r="E7" s="12">
-        <v>8</v>
-      </c>
-      <c r="F7" s="12">
-        <v>6</v>
-      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="13">
-        <f>('2009-Imputed'!C8+'2011-Imputed'!C8)/2</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="13">
-        <f>('2009-Imputed'!D8+'2011-Imputed'!D8)/2</f>
-        <v>3</v>
-      </c>
-      <c r="E8" s="13">
-        <f>('2009-Imputed'!E8+'2011-Imputed'!E8)/2</f>
-        <v>3</v>
-      </c>
-      <c r="F8" s="13">
-        <f>('2009-Imputed'!F8+'2011-Imputed'!F8)/2</f>
-        <v>2</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1048576 C3:F3">
       <formula1>countries</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
@@ -5180,7 +5505,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>Years</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A7">
       <formula1>indicators</formula1>
     </dataValidation>
   </dataValidations>
@@ -5191,24 +5516,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="9" style="9"/>
+    <col min="2" max="2" width="9" style="7"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="10">
+        <v>250</v>
+      </c>
+      <c r="B1" s="8">
         <v>2011</v>
       </c>
     </row>
@@ -5216,136 +5541,142 @@
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>280</v>
+      <c r="B2" s="7" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="18">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>7</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C5" s="5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9">
+        <v>4</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="19" t="s">
         <v>253</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75">
-      <c r="A5" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="12">
-        <v>8</v>
-      </c>
-      <c r="G5" s="12">
-        <v>6</v>
-      </c>
-      <c r="H5" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75">
-      <c r="A6" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="C6" s="5">
         <v>3</v>
       </c>
       <c r="D6" s="5">
+        <v>6</v>
+      </c>
+      <c r="E6" s="10">
+        <f>'2010-Raw'!E6*('2010-Raw'!E6/'2009-Raw'!E6)</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="F6" s="9">
+        <v>4</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="9">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="9">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9">
         <v>7</v>
       </c>
-      <c r="E6" s="5">
-        <v>6</v>
-      </c>
-      <c r="F6" s="12">
+      <c r="E8" s="9">
+        <v>8</v>
+      </c>
+      <c r="F8" s="9">
+        <v>3</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9">
         <v>4</v>
       </c>
-      <c r="G6" s="12">
-        <v>7</v>
-      </c>
-      <c r="H6" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75">
-      <c r="A7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="12">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4</v>
-      </c>
-      <c r="E7" s="14">
-        <f>'2010-Raw'!E7*('2010-Raw'!E7/'2009-Raw'!E7)</f>
-        <v>10.666666666666666</v>
-      </c>
-      <c r="F7" s="12">
-        <v>8</v>
-      </c>
-      <c r="G7" s="12">
-        <v>8</v>
-      </c>
-      <c r="H7" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
-        <v>4</v>
-      </c>
-      <c r="E8" s="12">
-        <v>4</v>
-      </c>
-      <c r="F8" s="12">
-        <v>3</v>
-      </c>
-      <c r="G8" s="12">
-        <v>3</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="F9" s="9">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H3 A4:A9">
       <formula1>indicators</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -5354,7 +5685,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>datatype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A1048576 C3:F3">
       <formula1>countries</formula1>
     </dataValidation>
   </dataValidations>
@@ -5365,162 +5696,246 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:CO8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="16384" width="9" style="5"/>
+    <col min="2" max="2" width="9" style="7"/>
+    <col min="3" max="7" width="9" style="5"/>
+    <col min="8" max="8" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:93" ht="15.75">
       <c r="A1" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="10">
+        <v>250</v>
+      </c>
+      <c r="B1" s="8">
         <v>2009</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:93" ht="15.75">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="15.75">
-      <c r="B3" s="7" t="s">
+      <c r="B2" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93" s="6" customFormat="1" ht="15.75">
+      <c r="A3" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24"/>
+      <c r="AU3" s="24"/>
+      <c r="AV3" s="24"/>
+      <c r="AW3" s="24"/>
+      <c r="AX3" s="24"/>
+      <c r="AY3" s="24"/>
+      <c r="AZ3" s="24"/>
+      <c r="BA3" s="24"/>
+      <c r="BB3" s="24"/>
+      <c r="BC3" s="24"/>
+      <c r="BD3" s="24"/>
+      <c r="BE3" s="24"/>
+      <c r="BF3" s="24"/>
+      <c r="BG3" s="24"/>
+      <c r="BH3" s="24"/>
+      <c r="BI3" s="24"/>
+      <c r="BJ3" s="24"/>
+      <c r="BK3" s="24"/>
+      <c r="BL3" s="24"/>
+      <c r="BM3" s="24"/>
+      <c r="BN3" s="24"/>
+      <c r="BO3" s="24"/>
+      <c r="BP3" s="24"/>
+      <c r="BQ3" s="24"/>
+      <c r="BR3" s="24"/>
+      <c r="BS3" s="24"/>
+      <c r="BT3" s="24"/>
+      <c r="BU3" s="24"/>
+      <c r="BV3" s="24"/>
+      <c r="BW3" s="24"/>
+      <c r="BX3" s="24"/>
+      <c r="BY3" s="24"/>
+      <c r="BZ3" s="24"/>
+      <c r="CA3" s="24"/>
+      <c r="CB3" s="24"/>
+      <c r="CC3" s="24"/>
+      <c r="CD3" s="24"/>
+      <c r="CE3" s="24"/>
+      <c r="CF3" s="24"/>
+      <c r="CG3" s="24"/>
+      <c r="CH3" s="24"/>
+      <c r="CI3" s="24"/>
+      <c r="CJ3" s="24"/>
+      <c r="CK3" s="24"/>
+      <c r="CL3" s="24"/>
+      <c r="CM3" s="24"/>
+      <c r="CN3" s="24"/>
+      <c r="CO3" s="24"/>
+    </row>
+    <row r="4" spans="1:93">
+      <c r="A4" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10">
+        <f>AVERAGE(C4:E4)</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="10">
+        <f>STDEV(C4:E4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:93">
+      <c r="A5" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="8"/>
       <c r="C5" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="9"/>
+      <c r="G5" s="10">
+        <f>AVERAGE(C5:E5)</f>
+        <v>5</v>
+      </c>
+      <c r="H5" s="10">
+        <f>STDEV(C5:E5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:93">
+      <c r="A6" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
       <c r="D6" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="5">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10">
+        <f>AVERAGE(C6:E6)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="H6" s="10">
+        <f>STDEV(C6:E6)</f>
+        <v>1.1547005383792526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:93">
+      <c r="A7" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="F6" s="12">
+      <c r="D7" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="12">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="E7" s="9">
         <v>4</v>
       </c>
-      <c r="E7" s="12">
-        <v>6</v>
-      </c>
-      <c r="F7" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="22"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="5">
-        <f>AVERAGE(C5:C7)</f>
-        <v>2</v>
-      </c>
-      <c r="D9" s="5">
-        <f>AVERAGE(D5:D7)</f>
-        <v>5</v>
-      </c>
-      <c r="E9" s="5">
-        <f>AVERAGE(E5:E7)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F9" s="5">
-        <f>AVERAGE(F5:F7)</f>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10">
+        <f>AVERAGE(C7:E7)</f>
         <v>3.3333333333333335</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" s="5">
-        <f>STDEV(C5:C7)</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <f>STDEV(D5:D7)</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <f>STDEV(E5:E7)</f>
-        <v>1.1547005383792526</v>
-      </c>
-      <c r="F10" s="5">
-        <f>STDEV(F5:F7)</f>
+      <c r="H7" s="10">
+        <f>STDEV(C7:E7)</f>
         <v>1.154700538379251</v>
       </c>
+    </row>
+    <row r="8" spans="1:93">
+      <c r="A8" s="15"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1048576 C3:F3">
       <formula1>countries</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
@@ -5529,7 +5944,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>Years</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A7">
       <formula1>indicators</formula1>
     </dataValidation>
   </dataValidations>
@@ -5540,164 +5955,260 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="16384" width="9" style="5"/>
+    <col min="2" max="2" width="9" style="7"/>
+    <col min="3" max="7" width="9" style="5"/>
+    <col min="8" max="8" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:21" ht="15.75">
       <c r="A1" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="10">
+        <v>250</v>
+      </c>
+      <c r="B1" s="8">
         <v>2010</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.75">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="15.75">
-      <c r="B3" s="7" t="s">
+      <c r="B2" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+    </row>
+    <row r="3" spans="1:21" s="6" customFormat="1" ht="15.75">
+      <c r="A3" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="18">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10">
+        <f>('2009-Raw'!D4+'2011-Raw'!D4)/2</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27">
+        <f>AVERAGE(C4:E4)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H4" s="27">
+        <f>STDEV(C4:E4)</f>
+        <v>1.5275252316519463</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C5" s="5">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27">
+        <f>AVERAGE(C5:E5)</f>
+        <v>6</v>
+      </c>
+      <c r="H5" s="27">
+        <f>STDEV(C5:E5)</f>
+        <v>2</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10">
+        <f>('2009-Raw'!D6+'2011-Raw'!D6)/2</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27">
+        <f>AVERAGE(C6:E6)</f>
+        <v>6</v>
+      </c>
+      <c r="H6" s="27">
+        <f>STDEV(C6:E6)</f>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5">
+      <c r="C7" s="9">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="5">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="E7" s="9">
+        <v>6</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27">
+        <f>AVERAGE(C7:E7)</f>
         <v>5</v>
       </c>
-      <c r="F5" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="13">
-        <f>('2009-Imputed'!C6+'2011-Imputed'!C6)/2</f>
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>6</v>
-      </c>
-      <c r="E6" s="13">
-        <f>('2009-Imputed'!E6+'2011-Imputed'!E6)/2</f>
-        <v>5</v>
-      </c>
-      <c r="F6" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="12">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4</v>
-      </c>
-      <c r="E7" s="12">
-        <v>8</v>
-      </c>
-      <c r="F7" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="22"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="5">
-        <f>AVERAGE(C5:C7)</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="D9" s="5">
-        <f>AVERAGE(D5:D7)</f>
-        <v>6</v>
-      </c>
-      <c r="E9" s="5">
-        <f>AVERAGE(E5:E7)</f>
-        <v>6</v>
-      </c>
-      <c r="F9" s="5">
-        <f>AVERAGE(F5:F7)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" s="5">
-        <f>STDEV(C5:C7)</f>
-        <v>1.5275252316519463</v>
-      </c>
-      <c r="D10" s="5">
-        <f>STDEV(D5:D7)</f>
-        <v>2</v>
-      </c>
-      <c r="E10" s="5">
-        <f>STDEV(E5:E7)</f>
+      <c r="H7" s="27">
+        <f>STDEV(C7:E7)</f>
         <v>1.7320508075688772</v>
       </c>
-      <c r="F10" s="5">
-        <f>STDEV(F5:F7)</f>
-        <v>1.7320508075688772</v>
-      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="15"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A7">
       <formula1>indicators</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -5706,7 +6217,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>datatype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1048576 C3:F3">
       <formula1>countries</formula1>
     </dataValidation>
   </dataValidations>

--- a/ontology/examples/exampleTAS.xlsx
+++ b/ontology/examples/exampleTAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="7905" tabRatio="554" firstSheet="15" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="7905" tabRatio="554" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1129,9 +1129,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1143,6 +1140,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1485,10 +1485,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="21.75">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="4" t="s">
         <v>249</v>
       </c>
@@ -3007,31 +3007,31 @@
       <c r="B1" s="8">
         <v>2011</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
     </row>
     <row r="2" spans="1:30" ht="15.75">
       <c r="A2" s="6" t="s">
@@ -3040,81 +3040,81 @@
       <c r="B2" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
     </row>
     <row r="3" spans="1:30" s="6" customFormat="1" ht="15.75">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>5</v>
       </c>
       <c r="D4" s="5">
@@ -3123,40 +3123,40 @@
       <c r="E4" s="5">
         <v>7</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27">
-        <f>AVERAGE(C4:E4)</f>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26">
+        <f t="shared" ref="G4:G9" si="0">AVERAGE(C4:E4)</f>
         <v>5</v>
       </c>
-      <c r="H4" s="27">
-        <f>STDEV(C4:E4)</f>
+      <c r="H4" s="26">
+        <f t="shared" ref="H4:H9" si="1">STDEV(C4:E4)</f>
         <v>2</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>252</v>
       </c>
       <c r="C5" s="5">
@@ -3168,40 +3168,40 @@
       <c r="E5" s="5">
         <v>4</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27">
-        <f>AVERAGE(C5:E5)</f>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H5" s="27">
-        <f>STDEV(C5:E5)</f>
+      <c r="H5" s="26">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>253</v>
       </c>
       <c r="C6" s="5">
@@ -3214,40 +3214,40 @@
         <f>'2010-Raw'!E6*('2010-Raw'!E6/'2009-Raw'!E6)</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27">
-        <f>AVERAGE(C6:E6)</f>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26">
+        <f t="shared" si="0"/>
         <v>6.5555555555555545</v>
       </c>
-      <c r="H6" s="27">
-        <f>STDEV(C6:E6)</f>
+      <c r="H6" s="26">
+        <f t="shared" si="1"/>
         <v>3.8634085890474927</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>254</v>
       </c>
       <c r="C7" s="9">
@@ -3259,40 +3259,40 @@
       <c r="E7" s="9">
         <v>8</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27">
-        <f>AVERAGE(C7:E7)</f>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26">
+        <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="H7" s="27">
-        <f>STDEV(C7:E7)</f>
+      <c r="H7" s="26">
+        <f t="shared" si="1"/>
         <v>2.309401076758502</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>244</v>
       </c>
       <c r="C8" s="9">
@@ -3304,40 +3304,40 @@
       <c r="E8" s="9">
         <v>8</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27">
-        <f>AVERAGE(C8:E8)</f>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H8" s="27">
-        <f>STDEV(C8:E8)</f>
+      <c r="H8" s="26">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>255</v>
       </c>
       <c r="C9" s="9">
@@ -3349,37 +3349,37 @@
       <c r="E9" s="9">
         <v>4</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27">
-        <f>AVERAGE(C9:E9)</f>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26">
+        <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="H9" s="27">
-        <f>STDEV(C9:E9)</f>
+      <c r="H9" s="26">
+        <f t="shared" si="1"/>
         <v>2.0816659994661335</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -3433,84 +3433,84 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="15.75">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <f>('2009-Sorted'!C4-'2009-Sorted'!G4)/'2009-Sorted'!H4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <f>('2009-Sorted'!D4-'2009-Sorted'!G4)/'2009-Sorted'!H4</f>
         <v>-1</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <f>('2009-Sorted'!E4-'2009-Sorted'!G4)/'2009-Sorted'!H4</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <f>('2009-Sorted'!G5-'2009-Sorted'!C5)/'2009-Sorted'!H5</f>
         <v>-1</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <f>('2009-Sorted'!G5-'2009-Sorted'!D5)/'2009-Sorted'!H5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <f>('2009-Sorted'!G5-'2009-Sorted'!E5)/'2009-Sorted'!H5</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <f>('2009-Sorted'!C6-'2009-Sorted'!G6)/'2009-Sorted'!H6</f>
         <v>-0.57735026918962551</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <f>('2009-Sorted'!D6-'2009-Sorted'!G6)/'2009-Sorted'!H6</f>
         <v>-0.57735026918962551</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <f>('2009-Sorted'!E6-'2009-Sorted'!G6)/'2009-Sorted'!H6</f>
         <v>1.1547005383792501</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <f>('2009-Sorted'!C7-'2009-Sorted'!G7)/'2009-Sorted'!H7</f>
         <v>0.57735026918962584</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <f>('2009-Sorted'!D7-'2009-Sorted'!G7)/'2009-Sorted'!H7</f>
         <v>-1.1547005383792521</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <f>('2009-Sorted'!E7-'2009-Sorted'!G7)/'2009-Sorted'!H7</f>
         <v>0.57735026918962584</v>
       </c>
@@ -3574,84 +3574,84 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="15.75">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <f>('2010-Sorted'!C4-'2010-Sorted'!G4)/'2010-Sorted'!H4</f>
         <v>-0.21821789023599253</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <f>('2010-Sorted'!D4-'2010-Sorted'!G4)/'2010-Sorted'!H4</f>
         <v>-0.87287156094396978</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <f>('2010-Sorted'!E4-'2010-Sorted'!G4)/'2010-Sorted'!H4</f>
         <v>1.091089451179962</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <f>('2010-Sorted'!G5-'2010-Sorted'!C5)/'2010-Sorted'!H5</f>
         <v>-1</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <f>('2010-Sorted'!G5-'2010-Sorted'!D5)/'2010-Sorted'!H5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <f>('2010-Sorted'!G5-'2010-Sorted'!E5)/'2010-Sorted'!H5</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <f>('2010-Sorted'!C6-'2010-Sorted'!G6)/'2010-Sorted'!H6</f>
         <v>-0.57735026918962584</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <f>('2010-Sorted'!D6-'2010-Sorted'!G6)/'2010-Sorted'!H6</f>
         <v>-0.57735026918962584</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <f>('2010-Sorted'!E6-'2010-Sorted'!G6)/'2010-Sorted'!H6</f>
         <v>1.1547005383792517</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <f>('2010-Sorted'!C7-'2010-Sorted'!G7)/'2010-Sorted'!H7</f>
         <v>0.57735026918962584</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <f>('2010-Sorted'!D7-'2010-Sorted'!G7)/'2010-Sorted'!H7</f>
         <v>-1.1547005383792517</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <f>('2010-Sorted'!E7-'2010-Sorted'!G7)/'2010-Sorted'!H7</f>
         <v>0.57735026918962584</v>
       </c>
@@ -3715,101 +3715,101 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <f>('2011-Sorted'!C4-'2011-Sorted'!G4)/'2011-Sorted'!H4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <f>('2011-Sorted'!D4-'2011-Sorted'!G4)/'2011-Sorted'!H4</f>
         <v>-1</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <f>('2011-Sorted'!E4-'2011-Sorted'!G4)/'2011-Sorted'!H4</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <f>('2011-Sorted'!G5-'2011-Sorted'!C5)/'2011-Sorted'!H5</f>
         <v>-1</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <f>('2011-Sorted'!G5-'2011-Sorted'!D5)/'2011-Sorted'!H5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <f>('2011-Sorted'!G5-'2011-Sorted'!E5)/'2011-Sorted'!H5</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <f>('2011-Sorted'!C6-'2011-Sorted'!G6)/'2011-Sorted'!H6</f>
         <v>-0.92031569366888055</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <f>('2011-Sorted'!D6-'2011-Sorted'!G6)/'2011-Sorted'!H6</f>
         <v>-0.14379932713576235</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <f>('2011-Sorted'!E6-'2011-Sorted'!G6)/'2011-Sorted'!H6</f>
         <v>1.0641150208046437</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <f>('2011-Sorted'!C7-'2011-Sorted'!G7)/'2011-Sorted'!H7</f>
         <v>0.57735026918962584</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <f>('2011-Sorted'!D7-'2011-Sorted'!G7)/'2011-Sorted'!H7</f>
         <v>-1.1547005383792521</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <f>('2011-Sorted'!E7-'2011-Sorted'!G7)/'2011-Sorted'!H7</f>
         <v>0.57735026918962584</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <f>('2011-Sorted'!C8-'2011-Sorted'!G8)/'2011-Sorted'!H8</f>
         <v>-1</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <f>('2011-Sorted'!D8-'2011-Sorted'!G8)/'2011-Sorted'!H8</f>
         <v>0</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <f>('2011-Sorted'!E8-'2011-Sorted'!G8)/'2011-Sorted'!H8</f>
         <v>1</v>
       </c>
@@ -3818,18 +3818,18 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <f>('2011-Sorted'!C9-'2011-Sorted'!G9)/'2011-Sorted'!H9</f>
         <v>1.1208970766356094</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <f>('2011-Sorted'!D9-'2011-Sorted'!G9)/'2011-Sorted'!H9</f>
         <v>-0.80064076902543546</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <f>('2011-Sorted'!E9-'2011-Sorted'!G9)/'2011-Sorted'!H9</f>
         <v>-0.32025630761017432</v>
       </c>
@@ -3889,36 +3889,36 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="15.75">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>48</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>251</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <f>'2011-Normalized'!C4+8</f>
         <v>8</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <f>'2011-Normalized'!D4+8</f>
         <v>7</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <f>'2011-Normalized'!E4+8</f>
         <v>9</v>
       </c>
@@ -3926,91 +3926,91 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>252</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <f>'2011-Normalized'!C5+8</f>
         <v>7</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <f>'2011-Normalized'!D5+8</f>
         <v>8</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="27">
         <f>'2011-Normalized'!E5+8</f>
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>253</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <f>'2011-Normalized'!C6+8</f>
         <v>7.079684306331119</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <f>'2011-Normalized'!D6+8</f>
         <v>7.8562006728642375</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <f>'2011-Normalized'!E6+8</f>
         <v>9.0641150208046444</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>254</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <f>'2011-Normalized'!C7+8</f>
         <v>8.5773502691896262</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <f>'2011-Normalized'!D7+8</f>
         <v>6.8452994616207476</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <f>'2011-Normalized'!E7+8</f>
         <v>8.5773502691896262</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>244</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <f>'2011-Normalized'!C8+8</f>
         <v>7</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <f>'2011-Normalized'!D8+8</f>
         <v>8</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <f>'2011-Normalized'!E8+8</f>
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>255</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <f>'2011-Normalized'!C9+8</f>
         <v>9.1208970766356092</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <f>'2011-Normalized'!D9+8</f>
         <v>7.1993592309745642</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <f>'2011-Normalized'!E9+8</f>
         <v>7.6797436923898257</v>
       </c>
@@ -4080,41 +4080,41 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="15.75">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>48</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>251</v>
       </c>
       <c r="B4" s="7">
         <f>Metadata!C255</f>
         <v>1</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <f>'Indicators-Adjusted'!C4*B4</f>
         <v>8</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <f>'Indicators-Adjusted'!D4*B4</f>
         <v>7</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <f>'Indicators-Adjusted'!E4*B4</f>
         <v>9</v>
       </c>
@@ -4122,22 +4122,22 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>252</v>
       </c>
       <c r="B5" s="7">
         <f>Metadata!C256</f>
         <v>0.5</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <f>'Indicators-Adjusted'!C5*B5</f>
         <v>3.5</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <f>'Indicators-Adjusted'!D5*B5</f>
         <v>4</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <f>'Indicators-Adjusted'!E5*B5</f>
         <v>4.5</v>
       </c>
@@ -4145,85 +4145,85 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>253</v>
       </c>
       <c r="B6" s="7">
         <f>Metadata!C257</f>
         <v>0.5</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <f>'Indicators-Adjusted'!C6*B6</f>
         <v>3.5398421531655595</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <f>'Indicators-Adjusted'!D6*B6</f>
         <v>3.9281003364321188</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <f>'Indicators-Adjusted'!E6*B6</f>
         <v>4.5320575104023222</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>254</v>
       </c>
       <c r="B7" s="7">
         <f>Metadata!C258</f>
         <v>1</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <f>'Indicators-Adjusted'!C7*B7</f>
         <v>8.5773502691896262</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <f>'Indicators-Adjusted'!D7*B7</f>
         <v>6.8452994616207476</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <f>'Indicators-Adjusted'!E7*B7</f>
         <v>8.5773502691896262</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>244</v>
       </c>
       <c r="B8" s="7">
         <f>Metadata!C259</f>
         <v>0.5</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <f>'Indicators-Adjusted'!C8*B8</f>
         <v>3.5</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <f>'Indicators-Adjusted'!D8*B8</f>
         <v>4</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <f>'Indicators-Adjusted'!E8*B8</f>
         <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>255</v>
       </c>
       <c r="B9" s="7">
         <f>Metadata!C260</f>
         <v>1</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <f>'Indicators-Adjusted'!C9*B9</f>
         <v>9.1208970766356092</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <f>'Indicators-Adjusted'!D9*B9</f>
         <v>7.1993592309745642</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <f>'Indicators-Adjusted'!E9*B9</f>
         <v>7.6797436923898257</v>
       </c>
@@ -4293,88 +4293,88 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>261</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <f>('Indicators-Weighted'!C4+'Indicators-Weighted'!C5)/2</f>
         <v>5.75</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <f>('Indicators-Weighted'!D4+'Indicators-Weighted'!D5)/2</f>
         <v>5.5</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <f>('Indicators-Weighted'!E4+'Indicators-Weighted'!E5)/2</f>
         <v>6.75</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>255</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <f>('Indicators-Weighted'!C9)</f>
         <v>9.1208970766356092</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <f>('Indicators-Weighted'!D9)</f>
         <v>7.1993592309745642</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <f>('Indicators-Weighted'!E9)</f>
         <v>7.6797436923898257</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>270</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <f>('Indicators-Weighted'!C6)</f>
         <v>3.5398421531655595</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <f>('Indicators-Weighted'!D6)</f>
         <v>3.9281003364321188</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <f>('Indicators-Weighted'!E6)</f>
         <v>4.5320575104023222</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>262</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <f>('Indicators-Weighted'!C7+'Indicators-Weighted'!C8)/2</f>
         <v>6.0386751345948131</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <f>('Indicators-Weighted'!D7+'Indicators-Weighted'!D8)/2</f>
         <v>5.4226497308103738</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <f>('Indicators-Weighted'!E7+'Indicators-Weighted'!E8)/2</f>
         <v>6.5386751345948131</v>
       </c>
@@ -4444,60 +4444,60 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>267</v>
       </c>
       <c r="B4" s="7">
         <f>Metadata!B270</f>
         <v>0.4</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <f>AVERAGE('Clusters-Weighted'!C4:'Clusters-Weighted'!C5)</f>
         <v>7.4354485383178046</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <f>AVERAGE('Clusters-Weighted'!D4:'Clusters-Weighted'!D5)</f>
         <v>6.3496796154872825</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <f>AVERAGE('Clusters-Weighted'!E4:'Clusters-Weighted'!E5)</f>
         <v>7.2148718461949128</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>268</v>
       </c>
       <c r="B5" s="7">
         <f>Metadata!B271</f>
         <v>0.6</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <f>AVERAGE('Clusters-Weighted'!C6:'Clusters-Weighted'!C7)</f>
         <v>4.7892586438801867</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <f>AVERAGE('Clusters-Weighted'!D6:'Clusters-Weighted'!D7)</f>
         <v>4.6753750336212461</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <f>AVERAGE('Clusters-Weighted'!E6:'Clusters-Weighted'!E7)</f>
         <v>5.5353663224985681</v>
       </c>
@@ -4567,34 +4567,34 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>272</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <f>'Subindex-Weighted'!C4*'Subindex-Weighted'!B4+'Subindex-Weighted'!C5*'Subindex-Weighted'!B5</f>
         <v>5.8477346016552341</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <f>'Subindex-Weighted'!D4*'Subindex-Weighted'!B4+'Subindex-Weighted'!D5*'Subindex-Weighted'!B5</f>
         <v>5.3450968663676601</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <f>'Subindex-Weighted'!E4*'Subindex-Weighted'!B4+'Subindex-Weighted'!E5*'Subindex-Weighted'!B5</f>
         <v>6.2071685319771062</v>
       </c>
@@ -4620,7 +4620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -4781,7 +4781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4793,7 +4793,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>250</v>
       </c>
       <c r="B1" s="8">
@@ -4801,7 +4801,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>246</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -4809,28 +4809,28 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="15.75">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>2</v>
       </c>
       <c r="D4" s="5">
@@ -4844,7 +4844,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>252</v>
       </c>
       <c r="C5" s="5">
@@ -4861,7 +4861,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>253</v>
       </c>
       <c r="C6" s="5">
@@ -4878,7 +4878,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>254</v>
       </c>
       <c r="C7" s="9">
@@ -4937,7 +4937,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>250</v>
       </c>
       <c r="B1" s="8">
@@ -4945,7 +4945,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>246</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -4953,28 +4953,28 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="15.75">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>3</v>
       </c>
       <c r="E4" s="5">
@@ -4983,7 +4983,7 @@
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>252</v>
       </c>
       <c r="C5" s="5">
@@ -4998,7 +4998,7 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>253</v>
       </c>
       <c r="C6" s="5">
@@ -5010,7 +5010,7 @@
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>254</v>
       </c>
       <c r="C7" s="9">
@@ -5083,28 +5083,28 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>5</v>
       </c>
       <c r="D4" s="5">
@@ -5118,7 +5118,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>252</v>
       </c>
       <c r="C5" s="5">
@@ -5137,7 +5137,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>253</v>
       </c>
       <c r="C6" s="5">
@@ -5153,7 +5153,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>254</v>
       </c>
       <c r="C7" s="9">
@@ -5172,7 +5172,7 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>244</v>
       </c>
       <c r="C8" s="9">
@@ -5191,7 +5191,7 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>255</v>
       </c>
       <c r="C9" s="9">
@@ -5259,28 +5259,28 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="15.75">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>2</v>
       </c>
       <c r="D4" s="5">
@@ -5294,7 +5294,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>252</v>
       </c>
       <c r="C5" s="5">
@@ -5311,7 +5311,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>253</v>
       </c>
       <c r="C6" s="5">
@@ -5328,7 +5328,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>254</v>
       </c>
       <c r="C7" s="9">
@@ -5396,28 +5396,28 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="15.75">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>3</v>
       </c>
       <c r="D4" s="10">
@@ -5433,7 +5433,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>252</v>
       </c>
       <c r="C5" s="5">
@@ -5451,7 +5451,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>253</v>
       </c>
       <c r="C6" s="5">
@@ -5470,7 +5470,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>254</v>
       </c>
       <c r="C7" s="9">
@@ -5546,28 +5546,28 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="15.75">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>5</v>
       </c>
       <c r="D4" s="5">
@@ -5581,7 +5581,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>252</v>
       </c>
       <c r="C5" s="5">
@@ -5600,7 +5600,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>253</v>
       </c>
       <c r="C6" s="5">
@@ -5620,7 +5620,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>254</v>
       </c>
       <c r="C7" s="9">
@@ -5639,7 +5639,7 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>244</v>
       </c>
       <c r="C8" s="9">
@@ -5658,7 +5658,7 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>255</v>
       </c>
       <c r="C9" s="9">
@@ -5728,117 +5728,117 @@
       </c>
     </row>
     <row r="3" spans="1:93" s="6" customFormat="1" ht="15.75">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="24"/>
-      <c r="AS3" s="24"/>
-      <c r="AT3" s="24"/>
-      <c r="AU3" s="24"/>
-      <c r="AV3" s="24"/>
-      <c r="AW3" s="24"/>
-      <c r="AX3" s="24"/>
-      <c r="AY3" s="24"/>
-      <c r="AZ3" s="24"/>
-      <c r="BA3" s="24"/>
-      <c r="BB3" s="24"/>
-      <c r="BC3" s="24"/>
-      <c r="BD3" s="24"/>
-      <c r="BE3" s="24"/>
-      <c r="BF3" s="24"/>
-      <c r="BG3" s="24"/>
-      <c r="BH3" s="24"/>
-      <c r="BI3" s="24"/>
-      <c r="BJ3" s="24"/>
-      <c r="BK3" s="24"/>
-      <c r="BL3" s="24"/>
-      <c r="BM3" s="24"/>
-      <c r="BN3" s="24"/>
-      <c r="BO3" s="24"/>
-      <c r="BP3" s="24"/>
-      <c r="BQ3" s="24"/>
-      <c r="BR3" s="24"/>
-      <c r="BS3" s="24"/>
-      <c r="BT3" s="24"/>
-      <c r="BU3" s="24"/>
-      <c r="BV3" s="24"/>
-      <c r="BW3" s="24"/>
-      <c r="BX3" s="24"/>
-      <c r="BY3" s="24"/>
-      <c r="BZ3" s="24"/>
-      <c r="CA3" s="24"/>
-      <c r="CB3" s="24"/>
-      <c r="CC3" s="24"/>
-      <c r="CD3" s="24"/>
-      <c r="CE3" s="24"/>
-      <c r="CF3" s="24"/>
-      <c r="CG3" s="24"/>
-      <c r="CH3" s="24"/>
-      <c r="CI3" s="24"/>
-      <c r="CJ3" s="24"/>
-      <c r="CK3" s="24"/>
-      <c r="CL3" s="24"/>
-      <c r="CM3" s="24"/>
-      <c r="CN3" s="24"/>
-      <c r="CO3" s="24"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
+      <c r="AT3" s="23"/>
+      <c r="AU3" s="23"/>
+      <c r="AV3" s="23"/>
+      <c r="AW3" s="23"/>
+      <c r="AX3" s="23"/>
+      <c r="AY3" s="23"/>
+      <c r="AZ3" s="23"/>
+      <c r="BA3" s="23"/>
+      <c r="BB3" s="23"/>
+      <c r="BC3" s="23"/>
+      <c r="BD3" s="23"/>
+      <c r="BE3" s="23"/>
+      <c r="BF3" s="23"/>
+      <c r="BG3" s="23"/>
+      <c r="BH3" s="23"/>
+      <c r="BI3" s="23"/>
+      <c r="BJ3" s="23"/>
+      <c r="BK3" s="23"/>
+      <c r="BL3" s="23"/>
+      <c r="BM3" s="23"/>
+      <c r="BN3" s="23"/>
+      <c r="BO3" s="23"/>
+      <c r="BP3" s="23"/>
+      <c r="BQ3" s="23"/>
+      <c r="BR3" s="23"/>
+      <c r="BS3" s="23"/>
+      <c r="BT3" s="23"/>
+      <c r="BU3" s="23"/>
+      <c r="BV3" s="23"/>
+      <c r="BW3" s="23"/>
+      <c r="BX3" s="23"/>
+      <c r="BY3" s="23"/>
+      <c r="BZ3" s="23"/>
+      <c r="CA3" s="23"/>
+      <c r="CB3" s="23"/>
+      <c r="CC3" s="23"/>
+      <c r="CD3" s="23"/>
+      <c r="CE3" s="23"/>
+      <c r="CF3" s="23"/>
+      <c r="CG3" s="23"/>
+      <c r="CH3" s="23"/>
+      <c r="CI3" s="23"/>
+      <c r="CJ3" s="23"/>
+      <c r="CK3" s="23"/>
+      <c r="CL3" s="23"/>
+      <c r="CM3" s="23"/>
+      <c r="CN3" s="23"/>
+      <c r="CO3" s="23"/>
     </row>
     <row r="4" spans="1:93">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>2</v>
       </c>
       <c r="D4" s="5">
@@ -5858,7 +5858,7 @@
       </c>
     </row>
     <row r="5" spans="1:93">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>252</v>
       </c>
       <c r="C5" s="5">
@@ -5881,7 +5881,7 @@
       </c>
     </row>
     <row r="6" spans="1:93">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>253</v>
       </c>
       <c r="C6" s="5">
@@ -5904,7 +5904,7 @@
       </c>
     </row>
     <row r="7" spans="1:93">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>254</v>
       </c>
       <c r="C7" s="9">
@@ -5977,22 +5977,22 @@
       <c r="B1" s="8">
         <v>2010</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
     </row>
     <row r="2" spans="1:21" ht="15.75">
       <c r="A2" s="6" t="s">
@@ -6001,63 +6001,63 @@
       <c r="B2" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
     </row>
     <row r="3" spans="1:21" s="6" customFormat="1" ht="15.75">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>3</v>
       </c>
       <c r="D4" s="10">
@@ -6067,31 +6067,31 @@
       <c r="E4" s="5">
         <v>5</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27">
+      <c r="F4" s="26"/>
+      <c r="G4" s="26">
         <f>AVERAGE(C4:E4)</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="26">
         <f>STDEV(C4:E4)</f>
         <v>1.5275252316519463</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>252</v>
       </c>
       <c r="C5" s="5">
@@ -6103,31 +6103,31 @@
       <c r="E5" s="5">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26">
         <f>AVERAGE(C5:E5)</f>
         <v>6</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="26">
         <f>STDEV(C5:E5)</f>
         <v>2</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>253</v>
       </c>
       <c r="C6" s="5">
@@ -6140,31 +6140,31 @@
       <c r="E6" s="5">
         <v>8</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27">
+      <c r="F6" s="26"/>
+      <c r="G6" s="26">
         <f>AVERAGE(C6:E6)</f>
         <v>6</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="26">
         <f>STDEV(C6:E6)</f>
         <v>1.7320508075688772</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>254</v>
       </c>
       <c r="C7" s="9">
@@ -6176,28 +6176,28 @@
       <c r="E7" s="9">
         <v>6</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26">
         <f>AVERAGE(C7:E7)</f>
         <v>5</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="26">
         <f>STDEV(C7:E7)</f>
         <v>1.7320508075688772</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="15"/>
